--- a/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
+++ b/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
@@ -1,126 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001092</t>
-  </si>
-  <si>
-    <t>001093</t>
-  </si>
-  <si>
-    <t>010343</t>
-  </si>
-  <si>
-    <t>010344</t>
-  </si>
-  <si>
-    <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-  </si>
-  <si>
-    <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-  </si>
-  <si>
-    <t>华宝英国富时100指数（QDII）A</t>
-  </si>
-  <si>
-    <t>华宝英国富时100指数（QDII）C</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>84.50</t>
-  </si>
-  <si>
-    <t>87.49</t>
-  </si>
-  <si>
-    <t>1.79</t>
-  </si>
-  <si>
-    <t>4.70</t>
-  </si>
-  <si>
-    <t>0.0179</t>
-  </si>
-  <si>
-    <t>0.0099</t>
-  </si>
-  <si>
-    <t>0.0038</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,141 +446,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
+++ b/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
+++ b/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
+++ b/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -1140,13 +1273,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
+++ b/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
+++ b/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1558,14 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1574,14 +1661,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1590,13 +1699,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
+++ b/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,205 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010343</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010344</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -664,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -725,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -763,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -791,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>000369</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -829,35 +753,111 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>010344</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>华宝英国富时100指数（QDII）C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -872,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -923,27 +923,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001092</t>
+          <t>000369</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -961,27 +961,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001093</t>
+          <t>000370</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+          <t>广发全球医疗保健(QDII) - 美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -999,36 +999,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>001092</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0184</t>
+          <t>0.0414</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1037,36 +1037,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>010344</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>华宝英国富时100指数（QDII）C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,7 +1309,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1263,27 +1339,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000369</t>
+          <t>001092</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1292,7 +1368,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1301,27 +1377,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000370</t>
+          <t>001093</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1330,7 +1406,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1339,36 +1415,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001092</t>
+          <t>010343</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+          <t>华宝英国富时100指数（QDII）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1377,112 +1453,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001093</t>
+          <t>010344</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+          <t>华宝英国富时100指数（QDII）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010343</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010344</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1557,26 +1557,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.0217</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1595,26 +1595,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.0217</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1623,36 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000369</t>
+          <t>010343</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
+          <t>华宝英国富时100指数（QDII）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1661,111 +1661,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000370</t>
+          <t>010344</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
+          <t>华宝英国富时100指数（QDII）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010343</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010344</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1780,128 +1704,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05</v>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
+++ b/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -644,31 +661,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+          <t>广发纳斯达克生物科技指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.1423</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -682,31 +699,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+          <t>广发纳斯达克生物科技指数（QDII）美元A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.1423</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000369</t>
+          <t>010343</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
+          <t>华宝英国富时100指数（QDII）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000370</t>
+          <t>010344</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
+          <t>华宝英国富时100指数（QDII）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +808,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>016470</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>广发纳斯达克生物科技指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +844,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010344</t>
+          <t>016471</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）C</t>
+          <t>广发纳斯达克生物科技指数（QDII）美元C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -923,36 +936,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000369</t>
+          <t>001092</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0423</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -961,36 +974,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000370</t>
+          <t>001093</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0423</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -999,36 +1012,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001092</t>
+          <t>000369</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1037,36 +1050,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001093</t>
+          <t>000370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+          <t>广发全球医疗保健(QDII) - 美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1085,26 +1098,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1123,26 +1136,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1151,6 +1164,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1274,214 +1571,6 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010343</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010344</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1557,26 +1646,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0423</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1595,26 +1684,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0423</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1633,22 +1722,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1671,22 +1760,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1699,6 +1788,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
+++ b/数据整理/stocks/其他/AZN-阿斯利康公共有限公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001092</t>
+          <t>000369</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数（QDII）人民币A</t>
+          <t>广发全球医疗保健（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.03</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1423</t>
+          <t>0.0777</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001093</t>
+          <t>000370</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数（QDII）美元A</t>
+          <t>广发全球医疗保健（QDII）美元A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.03</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1423</t>
+          <t>0.0777</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>001092</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>广发纳斯达克生物科技指数人民币A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0628</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010344</t>
+          <t>001093</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）C</t>
+          <t>广发纳斯达克生物科技指数美元A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0062</t>
+          <t>0.0628</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -808,34 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>016470</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数（QDII）人民币C</t>
+          <t>汇添富纳斯达克生物科技ETF（QDII）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.03</t>
+          <t>99.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -844,34 +863,222 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016280</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016281</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016470</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数人民币C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>016471</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数（QDII）美元C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数美元C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>7</v>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -941,31 +1148,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+          <t>广发纳斯达克生物科技指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.1423</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -979,31 +1186,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+          <t>广发纳斯达克生物科技指数（QDII）美元A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.1423</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1012,36 +1219,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000369</t>
+          <t>010343</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
+          <t>华宝英国富时100指数（QDII）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1050,36 +1257,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000370</t>
+          <t>010344</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
+          <t>华宝英国富时100指数（QDII）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1088,36 +1295,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010343</t>
+          <t>016470</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）A</t>
+          <t>广发纳斯达克生物科技指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1126,36 +1331,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010344</t>
+          <t>016471</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝英国富时100指数（QDII）C</t>
+          <t>广发纳斯达克生物科技指数（QDII）美元C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1220,36 +1423,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000369</t>
+          <t>001092</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0423</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1258,36 +1461,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000370</t>
+          <t>001093</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0423</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1296,36 +1499,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001092</t>
+          <t>000369</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1334,36 +1537,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001093</t>
+          <t>000370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+          <t>广发全球医疗保健(QDII) - 美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1382,26 +1585,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1420,26 +1623,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1448,6 +1651,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1571,214 +2058,6 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010343</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010344</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝英国富时100指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1854,26 +2133,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0423</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1892,26 +2171,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0423</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1930,22 +2209,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1968,22 +2247,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1996,6 +2275,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝英国富时100指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
